--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1878722.509520791</v>
+        <v>-1881310.020726368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>217.8411514271811</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.0814842140681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.71557181327854</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173972</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>98.62837588899009</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>92.33507763978305</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
@@ -871,10 +871,10 @@
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>67.63717907683501</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>93.95666539526968</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>284.8316859696386</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>128.1854292229444</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>173.5748303352333</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>168.1158122680957</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>220.6266854036309</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>19.36824379237597</v>
       </c>
       <c r="V10" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>60.25690685266584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>103.2360561910025</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.79687029690996</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176177</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>64.91921363453612</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>25.73194049497286</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.445727774093198</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>30.65104903283312</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.745793352658</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673003</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808091</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541832</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3080,13 +3080,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1573.743639981871</v>
+        <v>1785.375187673159</v>
       </c>
       <c r="C2" t="n">
-        <v>1573.743639981871</v>
+        <v>1785.375187673159</v>
       </c>
       <c r="D2" t="n">
-        <v>1573.743639981871</v>
+        <v>1427.109489066409</v>
       </c>
       <c r="E2" t="n">
-        <v>1187.955387383626</v>
+        <v>1041.321236468164</v>
       </c>
       <c r="F2" t="n">
-        <v>776.9694825940187</v>
+        <v>630.3353316785568</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7266088086083</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247274</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247274</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730306</v>
+        <v>237.1001391730315</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315688</v>
+        <v>549.6723906315697</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529732</v>
+        <v>974.3476699529742</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811713</v>
+        <v>1995.525025811715</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2470.354450076071</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259758</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510236</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="S2" t="n">
-        <v>3021.180272832447</v>
+        <v>3005.70867367284</v>
       </c>
       <c r="T2" t="n">
-        <v>3021.180272832447</v>
+        <v>2798.984896614957</v>
       </c>
       <c r="U2" t="n">
-        <v>3021.180272832447</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="V2" t="n">
-        <v>2690.117385488876</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="W2" t="n">
-        <v>2337.348730218762</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="X2" t="n">
-        <v>1963.882971957682</v>
+        <v>2171.975027737281</v>
       </c>
       <c r="Y2" t="n">
-        <v>1573.743639981871</v>
+        <v>2171.975027737281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274067</v>
+        <v>931.3126773451369</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.99725399294</v>
+        <v>756.8596480640099</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331688</v>
+        <v>607.9252384027586</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326233</v>
+        <v>448.6877833973032</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531178</v>
+        <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046179</v>
+        <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906345</v>
+        <v>74.31639416170481</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414025</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891825</v>
+        <v>147.6314117602529</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271156</v>
+        <v>505.1752167419863</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.89538449531</v>
+        <v>852.4686968101803</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131965</v>
+        <v>1277.100675446836</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731626993</v>
+        <v>1727.380043941864</v>
       </c>
       <c r="O3" t="n">
-        <v>2546.504589386188</v>
+        <v>2117.07790170106</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.64932860849</v>
+        <v>2410.51172267956</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623637</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623637</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.75126865863</v>
+        <v>2425.6136627297</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082329</v>
+        <v>2232.603124153399</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224566</v>
+        <v>2004.529278295636</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992823</v>
+        <v>1769.377170063893</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264622</v>
+        <v>1515.139813335692</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059089</v>
+        <v>1307.288313130159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294135</v>
+        <v>1099.528014365205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1090.554288503538</v>
+        <v>2045.842509744729</v>
       </c>
       <c r="C4" t="n">
-        <v>921.6181055756307</v>
+        <v>1876.906326816822</v>
       </c>
       <c r="D4" t="n">
-        <v>771.5014661632949</v>
+        <v>1726.789687404486</v>
       </c>
       <c r="E4" t="n">
-        <v>623.5883725809018</v>
+        <v>1726.789687404486</v>
       </c>
       <c r="F4" t="n">
-        <v>476.6984250829914</v>
+        <v>1579.899739906576</v>
       </c>
       <c r="G4" t="n">
-        <v>308.9191422841529</v>
+        <v>1579.899739906576</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225637</v>
+        <v>1433.002877144987</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247274</v>
+        <v>1333.378255034896</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038607</v>
+        <v>1373.203697426283</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589864</v>
+        <v>1568.48596988141</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712698</v>
+        <v>1873.906479893693</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583194</v>
+        <v>2206.318707680743</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468307</v>
+        <v>2536.261532090731</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>2825.000837712487</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>3048.546512699444</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809515</v>
+        <v>3026.615115431938</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>2833.596982943223</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239671</v>
+        <v>2611.503733862095</v>
       </c>
       <c r="U4" t="n">
-        <v>1272.202753333777</v>
+        <v>2322.396697196453</v>
       </c>
       <c r="V4" t="n">
-        <v>1272.202753333777</v>
+        <v>2227.490974574969</v>
       </c>
       <c r="W4" t="n">
-        <v>1272.202753333777</v>
+        <v>2227.490974574969</v>
       </c>
       <c r="X4" t="n">
-        <v>1272.202753333777</v>
+        <v>2227.490974574969</v>
       </c>
       <c r="Y4" t="n">
-        <v>1272.202753333777</v>
+        <v>2227.490974574969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1848.841245285255</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1490.575546678505</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1104.787294080261</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>693.8013892906531</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3085.834921597938</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3085.834921597938</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3085.834921597938</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2733.066266327824</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X5" t="n">
-        <v>2359.600508066744</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1662.13597939629</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1662.13597939629</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1407.451491190403</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.451491190403</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181387</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2055.097896014972</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.958564039161</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057156</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233225</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6822255254121</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>154.6822255254121</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>154.6822255254121</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1868.398285759939</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400719</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812165</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812165</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812165</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812165</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138418</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703116</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057243</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171299</v>
+        <v>954.24764486066</v>
       </c>
       <c r="C22" t="n">
-        <v>564.518882789223</v>
+        <v>785.3114619327531</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768872</v>
+        <v>635.1948225204173</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944941</v>
+        <v>487.2817289380242</v>
       </c>
       <c r="F22" t="n">
-        <v>266.4891497944941</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>266.4891497944941</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>124.7773186366922</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5953,7 +5953,7 @@
         <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473696</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>452.711958520141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958728</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679658</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556299</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>335.9629114732368</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>189.0729639753263</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925707</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261125</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345467</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,37 +6634,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7555,22 +7555,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,16 +7734,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795961</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.0615335795971</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113714</v>
+        <v>5.747744270113685</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>193.249293620375</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15.31688316801129</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.5787872221499</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>158.1809779285583</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.00892946589969</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.9484181982416</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>73.62417772602129</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>221.265260754708</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>226.4057028288551</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>142.975320248838</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.61478728573241</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>31.77834493961084</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194394</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>71.22040037418799</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.805489753489383e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1321982.271901469</v>
+        <v>1321982.27190147</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537625</v>
+        <v>82889.17417537623</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,7 +26323,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023841</v>
+        <v>54832.77288023815</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594301</v>
+        <v>32664.34410594299</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13682.85454400353</v>
+        <v>13682.85454400351</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19157.89151488696</v>
+      </c>
+      <c r="M4" t="n">
         <v>19157.89151488699</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>19157.89151488705</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19157.89151488705</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488697</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.891514887</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1305753.006457011</v>
+        <v>-1306147.827398164</v>
       </c>
       <c r="C6" t="n">
-        <v>-150490.5592317411</v>
+        <v>-150490.5592317408</v>
       </c>
       <c r="D6" t="n">
-        <v>-95657.78635150268</v>
+        <v>-95657.78635150258</v>
       </c>
       <c r="E6" t="n">
-        <v>-336808.698921805</v>
+        <v>-336843.4368472411</v>
       </c>
       <c r="F6" t="n">
-        <v>-11396.23711444986</v>
+        <v>-11430.97503988558</v>
       </c>
       <c r="G6" t="n">
-        <v>-11396.23711444983</v>
+        <v>-11430.97503988551</v>
       </c>
       <c r="H6" t="n">
-        <v>-11396.23711444989</v>
+        <v>-11430.97503988554</v>
       </c>
       <c r="I6" t="n">
-        <v>-11396.23711444986</v>
+        <v>-11430.97503988547</v>
       </c>
       <c r="J6" t="n">
-        <v>-215470.8955648126</v>
+        <v>-215505.6334902484</v>
       </c>
       <c r="K6" t="n">
-        <v>-52356.13024170994</v>
+        <v>-52356.13024170986</v>
       </c>
       <c r="L6" t="n">
-        <v>-19691.78613576689</v>
+        <v>-19691.78613576676</v>
       </c>
       <c r="M6" t="n">
-        <v>-104746.8140712787</v>
+        <v>-104746.8140712789</v>
       </c>
       <c r="N6" t="n">
-        <v>-19691.78613576692</v>
+        <v>-19691.78613576696</v>
       </c>
       <c r="O6" t="n">
-        <v>-19691.78613576693</v>
+        <v>-19691.78613576696</v>
       </c>
       <c r="P6" t="n">
         <v>-39119.50412939873</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303277</v>
+        <v>41.96894928303254</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559092</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638333</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>126.0900396838149</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>75.73254091667579</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>45.97411894093591</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192247</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>149.1044152748382</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>266.8435944132369</v>
       </c>
       <c r="V10" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578955</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.13914023359298</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.8193979727969</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774664</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477736</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212824</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967942</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034386</v>
       </c>
       <c r="Q2" t="n">
         <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495552</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063163</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967535</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.355874798252</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.0552244640947</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278062</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012074</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.3722063825128</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848087</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284283</v>
       </c>
       <c r="U3" t="n">
         <v>0.1482746817891886</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826819</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086572</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
         <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.0707363503609</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
         <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738643</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314391</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964339</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>489.8124929257571</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>491.1355220041058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>726.7533607666135</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,25 +33026,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278163</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074792</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205009</v>
       </c>
       <c r="N2" t="n">
         <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751074</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481691</v>
       </c>
       <c r="Q2" t="n">
         <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.01487890242464</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.09470136139404</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>361.1553585674075</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.8014950183778</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420764</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>454.8276449444729</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.634199756763</v>
       </c>
       <c r="P3" t="n">
-        <v>431.4593325477795</v>
+        <v>296.3977989681825</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726059</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689733</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
         <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.05692719615574</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>347.2162484813126</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>584.6193268445951</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,13 +36525,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36762,13 +36762,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
